--- a/biology/Zoologie/Homoloidea/Homoloidea.xlsx
+++ b/biology/Zoologie/Homoloidea/Homoloidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Homoloidea sont une super-famille de crabes. Elle comprend cinq familles dont deux fossiles.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (7 juillet 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 juillet 2016) :
 famille Homolidae De Haan, 1839
 famille Latreilliidae Stimpson, 1858
 famille Poupiniidae Guinot, 1991
@@ -549,7 +563,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>de Haan, 1839 : Crustacea. Fauna Japonica sive Descriptio Animalium, Quae in Itinere per Japoniam, Jussu et Auspiciis Superiorum, qui Summum in India Batava Imperium Tenent, Suscepto, Annis 1823–1830 Collegit, Noitis, Observationibus et Adumbrationibus Illustravit. Leiden: Lugduni-Batavorum. p. 1–243.</t>
         </is>
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17, p. 1–286.
 De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.</t>
